--- a/biology/Botanique/Phytopharmacie/Phytopharmacie.xlsx
+++ b/biology/Botanique/Phytopharmacie/Phytopharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La phytopharmacie est la science s'intéressant à la conception, au mode d'action, la préparation et la distribution  des produits qui servent à traiter les plantes.
 Leur utilisation est réglementée : l'annexe de l'arrêté du 14/04/1998 établissant la liste des substances actives dont l'incorporation est autorisée dans les produits phytopharmaceutiques.
@@ -513,13 +525,15 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Exemple de produits phytosanitaires.
 la bouillie bordelaise a des propriétés fongicides.
 Les acaricides avec les dicofol et cyhexatin.
 Les insecticides naturels avec la pyrèthrine.
-Les insecticides chimiques avec des Bifenthrine, Pyrimicarbe ou Tau-Fluvalinate[1].</t>
+Les insecticides chimiques avec des Bifenthrine, Pyrimicarbe ou Tau-Fluvalinate.</t>
         </is>
       </c>
     </row>
@@ -547,7 +561,9 @@
           <t>Diplôme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Faculté de Pharmacie de Paris délivre un diplôme de Phytopharmacie
 </t>
